--- a/R Programming Exam/Hitters_filtered_data.xlsx
+++ b/R Programming Exam/Hitters_filtered_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E213"/>
+  <dimension ref="A1:E242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -551,1717 +551,1717 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>65</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D19">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>34</v>
+      </c>
+      <c r="D27">
         <v>14</v>
       </c>
-      <c r="C27">
-        <v>42</v>
-      </c>
-      <c r="D27">
-        <v>22</v>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D32">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B33">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B35">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>49</v>
+      </c>
+      <c r="D36">
         <v>20</v>
       </c>
-      <c r="C36">
-        <v>67</v>
-      </c>
-      <c r="D36">
-        <v>45</v>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="B38">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D38">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B39">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C39">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D39">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="B40">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C41">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C42">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D43">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C45">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D45">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="B46">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="D46">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B47">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C47">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D47">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D48">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="B49">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D49">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D50">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D51">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="B52">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C52">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B53">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D53">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D54">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B55">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C55">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D55">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D56">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B57">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C57">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B58">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D58">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C59">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D59">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="B60">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C60">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D60">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C61">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D62">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="B63">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C63">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D63">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B64">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C64">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D64">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B65">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C65">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D65">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B66">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C66">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D66">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="B67">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D67">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B68">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D68">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B70">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D70">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C71">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D71">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B72">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C72">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D72">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C73">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D73">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C74">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D74">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C75">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D75">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D76">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C77">
+        <v>33</v>
+      </c>
+      <c r="D77">
         <v>37</v>
       </c>
-      <c r="D77">
-        <v>29</v>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C78">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D78">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C79">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D79">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D80">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C81">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D81">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C82">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D82">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="B83">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D83">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C84">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D84">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C85">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D85">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B86">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D86">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="B87">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C87">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D87">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D88">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="B89">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C89">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D89">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B90">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C90">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D90">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D91">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C92">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D92">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="B93">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C93">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D93">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C94">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D94">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B96">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C96">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D96">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D97">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D98">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D99">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B100">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C100">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D100">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -2270,1214 +2270,1214 @@
         <v>200</v>
       </c>
       <c r="B101">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C101">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D101">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C102">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B103">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C103">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D103">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D104">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B105">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C105">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D105">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="B106">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D106">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C107">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D107">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C108">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D108">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D109">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B110">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D110">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B111">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C111">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D111">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B112">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C112">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D112">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B113">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D113">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D114">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="B115">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D115">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B116">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D116">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B117">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C117">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D117">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D118">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="B119">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C119">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D119">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
         <v>31</v>
       </c>
-      <c r="C120">
-        <v>119</v>
-      </c>
       <c r="D120">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C121">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D121">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B122">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C122">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D122">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D123">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B124">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D125">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="B126">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C126">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D126">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="B127">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C127">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D127">
         <v>38</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="B128">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C128">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D128">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B129">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C129">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D129">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C130">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D130">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C131">
         <v>94</v>
       </c>
       <c r="D131">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B132">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C132">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D132">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C133">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D133">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B134">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C134">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D134">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B135">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C135">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D135">
         <v>33</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="B136">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C136">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D136">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C137">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D137">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C138">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D138">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="B139">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C139">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="D139">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D140">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B141">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C141">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D141">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B142">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D142">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C143">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D143">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C144">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D144">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B145">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C145">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D145">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C146">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D146">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="B147">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C147">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D147">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C148">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D148">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B149">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C149">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D149">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B150">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C150">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D150">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="B151">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C151">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D151">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C152">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D152">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="B153">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D153">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C154">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D154">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="B155">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C155">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D155">
         <v>33</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B156">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C156">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D156">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B157">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C157">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D157">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B158">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C158">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D158">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B159">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C159">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D159">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B160">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C160">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D160">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B161">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C161">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="D161">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B162">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C162">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D162">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B163">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C163">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D163">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="B164">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C164">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D164">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3486,929 +3486,1480 @@
         <v>76</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C165">
         <v>35</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C166">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D166">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="B167">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C167">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D167">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C168">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D168">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C169">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D169">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B170">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C170">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D170">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="B171">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C171">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D171">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="B172">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C172">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D172">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C173">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D173">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B174">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D174">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B175">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C175">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D175">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B176">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C176">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D176">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B177">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D177">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="B178">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D178">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B179">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C179">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D179">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="B180">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C180">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D180">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B181">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C181">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D181">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B182">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C182">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D182">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C183">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D183">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B184">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C184">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D184">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C185">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D185">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="B186">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C186">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="D186">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C187">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D187">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="B188">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C188">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D188">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B189">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C189">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D189">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C190">
         <v>42</v>
       </c>
       <c r="D190">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B191">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C191">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D191">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="B192">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C192">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D192">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C193">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D193">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="B194">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C194">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="D194">
         <v>52</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="B195">
         <v>2</v>
       </c>
       <c r="C195">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D195">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B196">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C196">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D196">
         <v>21</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B197">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C197">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D197">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C198">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D198">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C199">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D199">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C200">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D200">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B201">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C201">
         <v>50</v>
       </c>
       <c r="D201">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C202">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D202">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="B203">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C203">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="D203">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C204">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D204">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C205">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D205">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="B206">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C206">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D206">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B207">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C207">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D207">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="B208">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C208">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D208">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B209">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C209">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D209">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B210">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C210">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D210">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C211">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D211">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Division W</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C212">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D212">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Division E</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213">
+        <v>103</v>
+      </c>
+      <c r="B213">
+        <v>8</v>
+      </c>
+      <c r="C213">
+        <v>53</v>
+      </c>
+      <c r="D213">
+        <v>52</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>122</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>67</v>
+      </c>
+      <c r="D214">
+        <v>51</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>210</v>
+      </c>
+      <c r="B215">
+        <v>6</v>
+      </c>
+      <c r="C215">
+        <v>91</v>
+      </c>
+      <c r="D215">
+        <v>59</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>169</v>
+      </c>
+      <c r="B216">
+        <v>17</v>
+      </c>
+      <c r="C216">
+        <v>88</v>
+      </c>
+      <c r="D216">
+        <v>53</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>76</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>42</v>
+      </c>
+      <c r="D217">
+        <v>20</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>152</v>
+      </c>
+      <c r="B218">
+        <v>23</v>
+      </c>
+      <c r="C218">
+        <v>69</v>
+      </c>
+      <c r="D218">
+        <v>53</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>213</v>
+      </c>
+      <c r="B219">
+        <v>10</v>
+      </c>
+      <c r="C219">
+        <v>91</v>
+      </c>
+      <c r="D219">
+        <v>27</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>103</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>48</v>
+      </c>
+      <c r="D220">
+        <v>54</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>211</v>
+      </c>
+      <c r="B221">
+        <v>14</v>
+      </c>
+      <c r="C221">
+        <v>107</v>
+      </c>
+      <c r="D221">
+        <v>52</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>63</v>
+      </c>
+      <c r="B222">
+        <v>7</v>
+      </c>
+      <c r="C222">
+        <v>36</v>
+      </c>
+      <c r="D222">
+        <v>44</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>141</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>48</v>
+      </c>
+      <c r="D223">
+        <v>73</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>120</v>
+      </c>
+      <c r="B224">
+        <v>17</v>
+      </c>
+      <c r="C224">
+        <v>53</v>
+      </c>
+      <c r="D224">
+        <v>21</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>147</v>
+      </c>
+      <c r="B225">
+        <v>10</v>
+      </c>
+      <c r="C225">
+        <v>56</v>
+      </c>
+      <c r="D225">
+        <v>53</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>138</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>56</v>
+      </c>
+      <c r="D226">
+        <v>34</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>113</v>
+      </c>
+      <c r="B227">
+        <v>5</v>
+      </c>
+      <c r="C227">
+        <v>76</v>
+      </c>
+      <c r="D227">
+        <v>76</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>194</v>
+      </c>
+      <c r="B228">
+        <v>9</v>
+      </c>
+      <c r="C228">
+        <v>91</v>
+      </c>
+      <c r="D228">
+        <v>78</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>69</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <v>35</v>
+      </c>
+      <c r="D229">
+        <v>32</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>112</v>
+      </c>
+      <c r="B230">
+        <v>18</v>
+      </c>
+      <c r="C230">
+        <v>50</v>
+      </c>
+      <c r="D230">
+        <v>44</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>139</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>94</v>
+      </c>
+      <c r="D231">
+        <v>60</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>186</v>
+      </c>
+      <c r="B232">
+        <v>19</v>
+      </c>
+      <c r="C232">
+        <v>107</v>
+      </c>
+      <c r="D232">
+        <v>74</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>81</v>
+      </c>
+      <c r="B233">
+        <v>5</v>
+      </c>
+      <c r="C233">
+        <v>37</v>
+      </c>
+      <c r="D233">
+        <v>37</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>124</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>67</v>
+      </c>
+      <c r="D234">
+        <v>36</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>207</v>
+      </c>
+      <c r="B235">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>107</v>
+      </c>
+      <c r="D235">
+        <v>105</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>117</v>
+      </c>
+      <c r="B236">
+        <v>11</v>
+      </c>
+      <c r="C236">
+        <v>66</v>
+      </c>
+      <c r="D236">
+        <v>34</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>172</v>
+      </c>
+      <c r="B237">
+        <v>22</v>
+      </c>
+      <c r="C237">
+        <v>82</v>
+      </c>
+      <c r="D237">
+        <v>57</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>127</v>
+      </c>
+      <c r="B238">
+        <v>7</v>
+      </c>
+      <c r="C238">
+        <v>65</v>
+      </c>
+      <c r="D238">
+        <v>37</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>136</v>
+      </c>
+      <c r="B239">
+        <v>5</v>
+      </c>
+      <c r="C239">
+        <v>76</v>
+      </c>
+      <c r="D239">
+        <v>94</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>126</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>61</v>
+      </c>
+      <c r="D240">
+        <v>52</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>144</v>
+      </c>
+      <c r="B241">
+        <v>9</v>
+      </c>
+      <c r="C241">
+        <v>85</v>
+      </c>
+      <c r="D241">
+        <v>78</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
         <v>170</v>
       </c>
-      <c r="B213">
+      <c r="B242">
         <v>9</v>
       </c>
-      <c r="C213">
+      <c r="C242">
         <v>77</v>
       </c>
-      <c r="D213">
+      <c r="D242">
         <v>31</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Division W</t>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
